--- a/1a/Data/1.xlsx
+++ b/1a/Data/1.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/Electrocics/1a/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_491EE03DF57B0EC84C38D06C4AF682D852FB6A41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0205EEC-C6F2-4190-B02F-0182285763D7}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,15 +34,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -44,7 +54,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -54,35 +64,40 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -272,187 +287,192 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0079</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>352.9</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0089</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="C3" s="1">
         <v>25.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>479.8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0119</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="C4" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>499.7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0112</v>
+        <v>1.12E-2</v>
       </c>
       <c r="C5" s="1">
         <v>25.8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>602.5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0126</v>
+        <v>1.26E-2</v>
       </c>
       <c r="C6" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>787.2</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0137</v>
+        <v>1.37E-2</v>
       </c>
       <c r="C7" s="1">
         <v>25.7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>836.7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0244</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="C8" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>907.7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0371</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="C9" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>995.3</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0336</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C10" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1071.0</v>
+        <v>1071</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0339</v>
+        <v>3.39E-2</v>
       </c>
       <c r="C11" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1125.0</v>
+        <v>1125</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0418</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="C12" s="1">
         <v>25.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1201.0</v>
+        <v>1201</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0463</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="C13" s="1">
         <v>25.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1276.0</v>
+        <v>1276</v>
       </c>
       <c r="B14" s="1">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C14" s="1">
         <v>25.4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2150.0</v>
+        <v>2150</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0926</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="C15" s="1">
         <v>25.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>3222.0</v>
+        <v>3222</v>
       </c>
       <c r="B16" s="1">
         <v>0.1188</v>
@@ -461,9 +481,9 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>4190.0</v>
+        <v>4190</v>
       </c>
       <c r="B17" s="1">
         <v>0.1376</v>
@@ -472,64 +492,64 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>4900.0</v>
+        <v>4900</v>
       </c>
       <c r="B18" s="1">
         <v>0.16</v>
       </c>
       <c r="C18" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>5393.0</v>
+        <v>5393</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1718</v>
+        <v>0.17180000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <v>5758.7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="C20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>6241.7</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.1725</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B21" s="1">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="C21" s="1">
         <v>24.9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>5758.7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.1719</v>
-      </c>
-      <c r="C21" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>7590.0</v>
+        <v>7590</v>
       </c>
       <c r="B22" s="1">
-        <v>0.1876</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="C22" s="1">
         <v>24.8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>8250.0</v>
+        <v>8250</v>
       </c>
       <c r="B23" s="1">
         <v>0.191</v>
@@ -538,20 +558,20 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>9709.0</v>
+        <v>9709</v>
       </c>
       <c r="B24" s="1">
-        <v>0.1901</v>
+        <v>0.19009999999999999</v>
       </c>
       <c r="C24" s="1">
         <v>24.8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>10520.0</v>
+        <v>10520</v>
       </c>
       <c r="B25" s="1">
         <v>0.193</v>
@@ -560,9 +580,9 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>21605.0</v>
+        <v>21605</v>
       </c>
       <c r="B26" s="1">
         <v>0.2041</v>
@@ -571,20 +591,20 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>22873.0</v>
+        <v>22873</v>
       </c>
       <c r="B27" s="1">
-        <v>0.2043</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="C27" s="1">
         <v>24.8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>48847.0</v>
+        <v>48847</v>
       </c>
       <c r="B28" s="1">
         <v>0.2064</v>
@@ -593,9 +613,9 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>69138.0</v>
+        <v>69138</v>
       </c>
       <c r="B29" s="1">
         <v>0.2056</v>
@@ -604,53 +624,53 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>75922.0</v>
+        <v>75922</v>
       </c>
       <c r="B30" s="1">
-        <v>0.2063</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C30" s="1">
         <v>24.8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>98021.0</v>
+        <v>98021</v>
       </c>
       <c r="B31" s="1">
-        <v>0.2043</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>112203.0</v>
+        <v>112203</v>
       </c>
       <c r="B32" s="1">
-        <v>0.2035</v>
+        <v>0.20349999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>122004.0</v>
+        <v>122004</v>
       </c>
       <c r="B33" s="1">
         <v>0.2026</v>
       </c>
       <c r="C33" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>137913.0</v>
+        <v>137913</v>
       </c>
       <c r="B34" s="1">
         <v>0.1888</v>
@@ -659,9 +679,9 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>385021.0</v>
+        <v>385021</v>
       </c>
       <c r="B35" s="1">
         <v>0.1807</v>
@@ -670,95 +690,98 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>554931.0</v>
+        <v>554931</v>
       </c>
       <c r="B36" s="1">
         <v>0.1673</v>
       </c>
       <c r="C36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>806232.0</v>
+        <v>660221</v>
       </c>
       <c r="B37" s="1">
-        <v>0.148</v>
+        <v>0.1537</v>
       </c>
       <c r="C37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>660221.0</v>
+        <v>720019</v>
       </c>
       <c r="B38" s="1">
-        <v>0.1537</v>
+        <v>0.1487</v>
       </c>
       <c r="C38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>751342.0</v>
+        <v>751342</v>
       </c>
       <c r="B39" s="1">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>720019.0</v>
+        <v>767953</v>
       </c>
       <c r="B40" s="1">
-        <v>0.1487</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>767953.0</v>
+        <v>806232</v>
       </c>
       <c r="B41" s="1">
-        <v>0.1415</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>951112.0</v>
+        <v>951112</v>
       </c>
       <c r="B42" s="1">
-        <v>0.1126</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>1000123.0</v>
+        <v>1000123</v>
       </c>
       <c r="B43" s="1">
-        <v>0.1006</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+    <sortCondition ref="A2:A43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>